--- a/data/1/МСТиГ/!печать/З/Номера зачеток зфпо 1 курс.xlsx
+++ b/data/1/МСТиГ/!печать/З/Номера зачеток зфпо 1 курс.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Студенческие\2023-24\МСТиГ\!печать\З\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwlo\zachetker\data-sharer\data\1\МСТиГ\!печать\З\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E9187A-2C3F-45AF-9352-A3D6D83BA3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F690CB-A435-4543-9C17-8B279CCA9C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="411" sheetId="2" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>ФИО</t>
   </si>
   <si>
-    <t>№ студенческого билета, зачетки</t>
-  </si>
-  <si>
     <t>Алемасова Софья Андреевна</t>
   </si>
   <si>
@@ -623,6 +620,9 @@
   </si>
   <si>
     <t>Туризм и гостеприимство</t>
+  </si>
+  <si>
+    <t>N_ZACHET</t>
   </si>
 </sst>
 </file>
@@ -729,12 +729,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -746,6 +740,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1087,39 +1087,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="8"/>
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="12"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1127,378 +1127,378 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="D8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="D9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="D10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="D11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="D12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="D14" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="D15" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="D16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="D17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="D18" t="s">
-        <v>197</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="D19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="D20" t="s">
-        <v>197</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="D21" t="s">
-        <v>197</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="D22" t="s">
-        <v>197</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13" t="s">
-        <v>196</v>
+        <v>196</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1522,38 +1522,38 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="9"/>
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1561,378 +1561,378 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="D4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="D5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="D6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="D7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="D8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="D9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="D10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="D11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="D12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="D13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="D14" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="D15" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="D16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="D17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="D18" t="s">
-        <v>197</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="D19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="D20" t="s">
-        <v>197</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="D21" t="s">
-        <v>197</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="D22" t="s">
-        <v>197</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13" t="s">
-        <v>196</v>
+        <v>196</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1956,38 +1956,38 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="9"/>
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="13"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1995,587 +1995,587 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="D4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="D5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="D6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="D7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="D8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="D9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="D10" t="s">
-        <v>191</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="D11" t="s">
-        <v>191</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="D12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="D13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="D14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="D15" t="s">
-        <v>191</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="D16" t="s">
-        <v>191</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="D17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="D18" t="s">
-        <v>191</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="D19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="D20" t="s">
-        <v>191</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>118</v>
-      </c>
       <c r="D21" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="D22" t="s">
-        <v>191</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="D23" t="s">
-        <v>191</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="D24" t="s">
-        <v>191</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="D25" t="s">
-        <v>191</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="D26" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>130</v>
-      </c>
       <c r="D27" t="s">
-        <v>191</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="D28" t="s">
-        <v>191</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="D29" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="D30" t="s">
-        <v>191</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>138</v>
-      </c>
       <c r="D31" t="s">
-        <v>191</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="D32" t="s">
-        <v>191</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>142</v>
-      </c>
       <c r="D33" t="s">
-        <v>191</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13" t="s">
-        <v>196</v>
+        <v>190</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2598,38 +2598,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2637,454 +2637,454 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="D4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="D5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="D6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>151</v>
-      </c>
       <c r="D7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>153</v>
-      </c>
       <c r="D8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>155</v>
-      </c>
       <c r="D9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="D10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>159</v>
-      </c>
       <c r="D11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="D12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>163</v>
-      </c>
       <c r="D13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="D14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="D15" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="D16" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="D17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="D18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="D19" t="s">
-        <v>192</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>177</v>
-      </c>
       <c r="D20" t="s">
-        <v>192</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>179</v>
-      </c>
       <c r="D21" t="s">
-        <v>192</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="D22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="D23" t="s">
-        <v>192</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="D24" t="s">
-        <v>192</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>187</v>
-      </c>
       <c r="D25" t="s">
-        <v>192</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>189</v>
-      </c>
       <c r="D26" t="s">
-        <v>192</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13" t="s">
-        <v>196</v>
+        <v>191</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
